--- a/biodigestor_input.xlsx
+++ b/biodigestor_input.xlsx
@@ -5,18 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mijn_drive\our_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F1EF53-082B-46B0-A8D1-9A6C5809C375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502E309B-BF0F-4E51-B384-8A644E57D7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biodigestor_input" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="C7cQOKWq/l2URP0jNflpJRuiNZytvZfv8wE0XtYE3J4="/>
     </ext>
@@ -88,15 +99,9 @@
     <t>biomethane</t>
   </si>
   <si>
-    <t>g_CH4/Kg_DM</t>
-  </si>
-  <si>
     <t>electricity</t>
   </si>
   <si>
-    <t>MJ/Kg_DM</t>
-  </si>
-  <si>
     <t>digestate</t>
   </si>
   <si>
@@ -116,6 +121,12 @@
   </si>
   <si>
     <t>BS_yeast</t>
+  </si>
+  <si>
+    <t>g_CH4/Kg(DM)</t>
+  </si>
+  <si>
+    <t>MJ/Kg(DM)</t>
   </si>
 </sst>
 </file>
@@ -376,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -429,13 +440,13 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -444,10 +455,10 @@
         <v>10</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -455,7 +466,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>19500</v>
@@ -505,10 +516,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>6630</v>
@@ -558,10 +569,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1">
         <v>0.89259999999999995</v>

--- a/biodigestor_input.xlsx
+++ b/biodigestor_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502E309B-BF0F-4E51-B384-8A644E57D7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629658F9-FE7B-46F8-B5D7-6723247112BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <dimension ref="A1:Q975"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/biodigestor_input.xlsx
+++ b/biodigestor_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629658F9-FE7B-46F8-B5D7-6723247112BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C4225D-DA60-4877-A870-E9BF827ED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="biodigestor_input" sheetId="1" r:id="rId1"/>
@@ -147,12 +147,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,9 +173,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +395,7 @@
   <dimension ref="A1:Q975"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -462,10 +469,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1">
@@ -515,10 +522,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1">
@@ -568,10 +575,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1">
